--- a/Dataframes/2020DFAUTO.xlsx
+++ b/Dataframes/2020DFAUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Google Drive\PhD\Deruta\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51093D43-138C-44F4-B077-81B4CC18C759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B64883-C9B9-474E-AD49-95F1DEF8BB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3735" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2976" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="334">
+  <dxfs count="294">
     <dxf>
       <fill>
         <patternFill>
@@ -3038,298 +3038,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF996633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF996633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF996633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF996633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF996633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF996633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3642,8 +3350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HQ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42318,7 +42027,7 @@
       </c>
       <c r="M63" s="1">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -42414,11 +42123,11 @@
         <v>6</v>
       </c>
       <c r="AR63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS63">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT63" s="2">
         <v>5</v>

--- a/Dataframes/2020DFAUTO.xlsx
+++ b/Dataframes/2020DFAUTO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Google Drive\PhD\Deruta\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B64883-C9B9-474E-AD49-95F1DEF8BB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38717B1-338C-4C28-92AC-0803761AC463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2976" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$GN$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$HQ$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3350,9 +3350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HQ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="BJ6" sqref="BJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -16007,11 +16007,11 @@
         <v>2</v>
       </c>
       <c r="BH21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI21">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ21" s="2">
         <v>7</v>
@@ -16057,11 +16057,11 @@
         <v>1</v>
       </c>
       <c r="BX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY21">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ21" s="2">
         <v>9</v>
@@ -51994,8 +51994,8 @@
         <v>6</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="62"/>
-        <v>4</v>
+        <f>SUM(T79,AB79,AJ79,AR79,AZ79,BH79,BP79,BX79,CF79,CN79,CV79,DD79,DL79,DT79,EB79,EJ79,ER79,EZ79,FH79,FP79,FX79,GF79,GN79,GW79)</f>
+        <v>3</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -52091,11 +52091,11 @@
         <v>1</v>
       </c>
       <c r="AR79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS79">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT79" s="2">
         <v>5</v>

--- a/Dataframes/2020DFAUTO.xlsx
+++ b/Dataframes/2020DFAUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Google Drive\PhD\Deruta\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38717B1-338C-4C28-92AC-0803761AC463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D16203-9177-446E-8498-D84244B71C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11963" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11959" uniqueCount="300">
   <si>
     <t>tesi</t>
   </si>
@@ -3350,9 +3350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HQ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BJ6" sqref="BJ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11914,11 +11914,11 @@
       <c r="EO14" t="s">
         <v>297</v>
       </c>
-      <c r="EP14" s="2">
-        <v>0</v>
-      </c>
-      <c r="EQ14" s="2">
-        <v>0</v>
+      <c r="EP14" t="s">
+        <v>297</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>297</v>
       </c>
       <c r="ER14" t="s">
         <v>297</v>
@@ -14209,8 +14209,8 @@
       <c r="CD18" t="s">
         <v>297</v>
       </c>
-      <c r="CE18" s="2">
-        <v>0</v>
+      <c r="CE18" t="s">
+        <v>297</v>
       </c>
       <c r="CF18" t="s">
         <v>297</v>
@@ -22067,10 +22067,10 @@
       </c>
       <c r="G31" s="1">
         <f t="shared" si="26"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="27"/>
+        <f>SUM(O31,W31,AE31,AM31,AU31,BC31,BK31,BS31,CA31,CI31,CQ31,CY31,DG31,DO31,DW31,EE31,EM31,EU31,FC31,FK31,FS31,GA31,GI31,GQ31)</f>
         <v>11</v>
       </c>
       <c r="I31" s="1">
@@ -22475,7 +22475,7 @@
         <v>0</v>
       </c>
       <c r="EF31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EG31" s="2">
         <v>0</v>
@@ -22491,32 +22491,32 @@
       </c>
       <c r="EK31">
         <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="EL31" t="s">
-        <v>297</v>
-      </c>
-      <c r="EM31" t="s">
-        <v>297</v>
-      </c>
-      <c r="EN31" t="s">
-        <v>297</v>
-      </c>
-      <c r="EO31" t="s">
-        <v>297</v>
-      </c>
-      <c r="EP31" t="s">
-        <v>297</v>
-      </c>
-      <c r="EQ31" t="s">
-        <v>297</v>
-      </c>
-      <c r="ER31" t="s">
-        <v>297</v>
+        <v>1</v>
+      </c>
+      <c r="EL31">
+        <v>17</v>
+      </c>
+      <c r="EM31">
+        <v>0</v>
+      </c>
+      <c r="EN31">
+        <v>2</v>
+      </c>
+      <c r="EO31">
+        <v>0</v>
+      </c>
+      <c r="EP31">
+        <v>0</v>
+      </c>
+      <c r="EQ31">
+        <v>0</v>
+      </c>
+      <c r="ER31">
+        <v>0</v>
       </c>
       <c r="ES31">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ET31" t="s">
         <v>297</v>

--- a/Dataframes/2020DFAUTO.xlsx
+++ b/Dataframes/2020DFAUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Google Drive\PhD\Deruta\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D16203-9177-446E-8498-D84244B71C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A84A4-3E0B-429B-B94E-896D3528A88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3352,7 +3352,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
